--- a/biology/Botanique/Dryopteris_crispifolia/Dryopteris_crispifolia.xlsx
+++ b/biology/Botanique/Dryopteris_crispifolia/Dryopteris_crispifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryopteris crispifolia est une espèce de plante de la famille des Dryopteridaceae et du genre Dryopteris.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopteris crispifolia est une fougère de taille moyenne, au limbe de forme triangulaire, au feuillage très découpé, trois fois divisé, et dont les marges des pinnules sont alternativement recourbées vers le haut, puis vers le bas, donnant à la fronde un effet ondulé, caractéristique de la plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopteris crispifolia est une fougère de taille moyenne, au limbe de forme triangulaire, au feuillage très découpé, trois fois divisé, et dont les marges des pinnules sont alternativement recourbées vers le haut, puis vers le bas, donnant à la fronde un effet ondulé, caractéristique de la plante.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopteris crispifolia est endémique des Açores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopteris crispifolia est endémique des Açores.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasite Phlogophora interrupta[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasite Phlogophora interrupta.
 </t>
         </is>
       </c>
